--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-07-23" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Sample</t>
   </si>
@@ -52,6 +53,36 @@
   </si>
   <si>
     <t>Difference in bef. &amp; after UC</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
   </si>
 </sst>
 </file>
@@ -100,8 +131,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -110,11 +145,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,7 +190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'2018-07-20'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -176,7 +215,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>'2018-07-20'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -200,7 +239,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'2018-07-20'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -332,6 +371,327 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-23'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-23'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2115484600"/>
+        <c:axId val="2115827688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2115484600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Readings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115827688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2115827688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sampl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>e Conc.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115484600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-23'!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2137483976"/>
+        <c:axId val="2137481832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2137483976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137481832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2137481832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137483976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -359,6 +719,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -691,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -927,4 +1352,370 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="C2">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>2.641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">AVERAGE(B3:C3)</f>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="1">D3-$D$6</f>
+        <v>1.399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.55099999999999993</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.47099999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="F7">
+        <f>(0.7719*E7) - 0.0616</f>
+        <v>3.0256100000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.189</v>
+      </c>
+      <c r="C8">
+        <v>0.192</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.1905</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.1105</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F16" si="2">(0.7719*E8) - 0.0616</f>
+        <v>2.3694950000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.189</v>
+      </c>
+      <c r="C9">
+        <v>0.188</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.1885</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.1085</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.2151149999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9.4999999999999987E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.1730499999999991E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.0958599999999985E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>5.941250000000009E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>7.8709999999999891E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>4.3974500000000111E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>6.327200000000005E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.17</v>
+      </c>
+      <c r="C16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999985E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>9.4147999999999871E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB532A0-F085-4D8F-872C-1F346E56C6D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
     <sheet name="2018-07-23" sheetId="2" r:id="rId2"/>
+    <sheet name="2018-07-25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Sample</t>
   </si>
@@ -84,11 +91,14 @@
   <si>
     <t>S10</t>
   </si>
+  <si>
+    <t>samp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -158,11 +168,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -176,7 +194,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -209,7 +226,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -226,13 +242,13 @@
                   <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4545</c:v>
+                  <c:v>0.45449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1355</c:v>
+                  <c:v>0.13550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,10 +260,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -256,12 +272,17 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBFD-480F-BBCF-2B1EB587DBB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -303,7 +324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -337,7 +357,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -365,14 +384,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -404,7 +423,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -424,10 +442,10 @@
                   <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.471</c:v>
+                  <c:v>0.47099999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,10 +457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -451,12 +469,17 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38A7-420D-8720-8EA2D0FDDD03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -496,7 +519,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -535,7 +557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -563,14 +584,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -604,7 +625,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.119</c:v>
+                  <c:v>0.11900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1105</c:v>
@@ -613,30 +634,35 @@
                   <c:v>0.1085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.095</c:v>
+                  <c:v>9.4999999999999987E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.094</c:v>
+                  <c:v>9.3999999999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0875</c:v>
+                  <c:v>8.7500000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09</c:v>
+                  <c:v>8.9999999999999983E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0855</c:v>
+                  <c:v>8.5500000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.088</c:v>
+                  <c:v>8.8000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.092</c:v>
+                  <c:v>9.1999999999999985E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D40D-4460-AEEA-720DCD2F1254}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -686,10 +712,927 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-25'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1164999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-25'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-13D8-4021-9851-F1B9C384F2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424342232"/>
+        <c:axId val="424336000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424342232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424336000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424336000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424342232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,7 +1652,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -744,7 +1693,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -774,7 +1729,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -784,6 +1745,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1113,19 +2115,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1167,7 +2169,7 @@
         <v>2.1555</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1186,7 +2188,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1197,7 +2199,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D10" si="1">AVERAGE(B4:C4)</f>
+        <f t="shared" ref="D4:D10" si="1">AVERAGE(B4:C4)</f>
         <v>0.52649999999999997</v>
       </c>
       <c r="E4">
@@ -1205,7 +2207,7 @@
         <v>0.45449999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -1224,7 +2226,7 @@
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1242,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +2271,7 @@
         <v>9.5287600000000028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +2294,7 @@
         <v>0.51801439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +2321,7 @@
         <v>0.15670519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1355,16 +2357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1403,7 +2405,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1422,7 +2424,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1441,7 +2443,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -1460,7 +2462,7 @@
         <v>0.47099999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1479,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +2504,7 @@
         <v>3.0256100000000008E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +2527,7 @@
         <v>2.3694950000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +2550,7 @@
         <v>2.2151149999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +2573,7 @@
         <v>1.1730499999999991E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +2596,7 @@
         <v>1.0958599999999985E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +2619,7 @@
         <v>5.941250000000009E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +2642,7 @@
         <v>7.8709999999999891E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +2665,7 @@
         <v>4.3974500000000111E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +2688,7 @@
         <v>6.327200000000005E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1718,4 +2720,185 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33093A63-4EE6-49B7-A537-6BD672D1243E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.736</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>1.9739999999999998</v>
+      </c>
+      <c r="F2">
+        <f>(1.0182*E2) - 0.0652</f>
+        <v>1.9447267999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(B3:C3)</f>
+        <v>1.1884999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">D3-$D$6</f>
+        <v>1.1164999999999998</v>
+      </c>
+      <c r="F3">
+        <f>(1.0182*E3) - 0.0652</f>
+        <v>1.0716203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="1">AVERAGE(B4:C4)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.60300000000000009</v>
+      </c>
+      <c r="F4">
+        <f>(1.0182*E4) - 0.0652</f>
+        <v>0.5487746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.39</v>
+      </c>
+      <c r="C5">
+        <v>0.374</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="F5">
+        <f>(1.0182*E5) - 0.0652</f>
+        <v>0.250442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>(1.0182*E6) - 0.0652</f>
+        <v>-6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(B7:C7)</f>
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="F7">
+        <f>(1.0182*E7) - 0.0652</f>
+        <v>0.65008549999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB532A0-F085-4D8F-872C-1F346E56C6D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1920CC-1F23-4A9B-8779-FD72A072656C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2119,7 +2119,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2360,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33093A63-4EE6-49B7-A537-6BD672D1243E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2779,7 @@
         <v>1.9739999999999998</v>
       </c>
       <c r="F2">
-        <f>(1.0182*E2) - 0.0652</f>
+        <f t="shared" ref="F2:F7" si="0">(1.0182*E2) - 0.0652</f>
         <v>1.9447267999999998</v>
       </c>
     </row>
@@ -2798,11 +2798,11 @@
         <v>1.1884999999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">D3-$D$6</f>
+        <f t="shared" ref="E3:E7" si="1">D3-$D$6</f>
         <v>1.1164999999999998</v>
       </c>
       <c r="F3">
-        <f>(1.0182*E3) - 0.0652</f>
+        <f t="shared" si="0"/>
         <v>1.0716203</v>
       </c>
     </row>
@@ -2817,15 +2817,15 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="1">AVERAGE(B4:C4)</f>
+        <f t="shared" ref="D4:D5" si="2">AVERAGE(B4:C4)</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.60300000000000009</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.60300000000000009</v>
-      </c>
-      <c r="F4">
-        <f>(1.0182*E4) - 0.0652</f>
         <v>0.5487746</v>
       </c>
     </row>
@@ -2840,15 +2840,15 @@
         <v>0.374</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E5">
+        <v>0.31</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.31</v>
-      </c>
-      <c r="F5">
-        <f>(1.0182*E5) - 0.0652</f>
         <v>0.250442</v>
       </c>
     </row>
@@ -2866,11 +2866,11 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>(1.0182*E6) - 0.0652</f>
         <v>-6.5199999999999994E-2</v>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         <v>0.77449999999999997</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="F7">
-        <f>(1.0182*E7) - 0.0652</f>
         <v>0.65008549999999998</v>
       </c>
     </row>

--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1920CC-1F23-4A9B-8779-FD72A072656C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D782396E-2EFF-4A61-9E8D-F3878747D7BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
     <sheet name="2018-07-23" sheetId="2" r:id="rId2"/>
-    <sheet name="2018-07-25" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-07-25 (1st quant)" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-07-25 (unfold)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Sample</t>
   </si>
@@ -94,6 +95,9 @@
   <si>
     <t>samp</t>
   </si>
+  <si>
+    <t>Only Reading 2 values</t>
+  </si>
 </sst>
 </file>
 
@@ -124,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,8 +162,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -839,7 +850,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-25'!$E$2:$E$6</c:f>
+              <c:f>'2018-07-25 (1st quant)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -863,7 +874,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018-07-25'!$A$2:$A$6</c:f>
+              <c:f>'2018-07-25 (1st quant)'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1079,6 +1090,1172 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-25 (unfold)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1335000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1095000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-25 (unfold)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33D4-413B-A557-DA21A185F599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="431397024"/>
+        <c:axId val="431398008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="431397024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431398008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="431398008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Samp Conc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431397024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unfolding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve using Avg</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-25 (unfold)'!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39258999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39545920000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38637340000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36102880000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35481220000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35242119999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35337760000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35337760000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34572640000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34429180000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F36-4DA1-8076-FE4C0CE23D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432876496"/>
+        <c:axId val="432879120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432876496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432879120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432879120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432876496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unfolding curve using highlighted values</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-25 (unfold)'!$E$19:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39880660000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39019900000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38732980000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36820180000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35863780000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35385580000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35194300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3404662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3385534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5147-4516-B7AD-978F23DA6946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432879448"/>
+        <c:axId val="432880432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432879448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432880432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432880432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432879448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1119,7 +2296,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1794,6 +4639,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2360,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2726,7 +5684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33093A63-4EE6-49B7-A537-6BD672D1243E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2901,4 +5859,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B887DB37-B07C-4FAF-9842-4D3934C6CDEF}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.2030000000000003</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>2.1335000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.163</v>
+      </c>
+      <c r="C3">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">AVERAGE(B3:C3)</f>
+        <v>1.179</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="1">D3-$D$6</f>
+        <v>1.1095000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.42400000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.35450000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F7">
+        <f>(0.9564*E7) - 0.0617</f>
+        <v>0.39258999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="2">AVERAGE(B9:C9)</f>
+        <v>0.5475000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.47800000000000009</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F16" si="3">(0.9564*E8) - 0.0617</f>
+        <v>0.39545920000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.38637340000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.51150000000000007</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.44200000000000006</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.36102880000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.505</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.4355</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.35481220000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.504</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.43299999999999994</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.35242119999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.503</v>
+      </c>
+      <c r="C13">
+        <v>0.502</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.50350000000000006</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.43400000000000005</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.35337760000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.503</v>
+      </c>
+      <c r="C14">
+        <v>0.504</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B14:C14)</f>
+        <v>0.50350000000000006</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.43400000000000005</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.35337760000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.501</v>
+      </c>
+      <c r="C15">
+        <v>0.49</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.4955</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.34572640000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.34429180000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D19">
+        <f>C19-$D$6</f>
+        <v>0.48150000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <f>(0.9564*D19) - 0.0617</f>
+        <v>0.39880660000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D28" si="4">C20-$D$6</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:E28" si="5">(0.9564*D20) - 0.0617</f>
+        <v>0.39019900000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>0.46950000000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.38732980000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36820180000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>0.4395</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35863780000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.504</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.4345</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35385580000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.502</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.4325</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35194300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.504</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>0.4345</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.49</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3404662</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3385534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D782396E-2EFF-4A61-9E8D-F3878747D7BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="2018-07-25 (1st quant)" sheetId="3" r:id="rId3"/>
     <sheet name="2018-07-25 (unfold)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -102,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -191,7 +185,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -205,6 +199,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -237,6 +232,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -253,13 +249,13 @@
                   <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45449999999999996</c:v>
+                  <c:v>0.4545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13550000000000001</c:v>
+                  <c:v>0.1355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,10 +267,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -283,13 +279,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBFD-480F-BBCF-2B1EB587DBB7}"/>
             </c:ext>
@@ -303,11 +299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118658520"/>
-        <c:axId val="2118926008"/>
+        <c:axId val="2112332984"/>
+        <c:axId val="2117103832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118658520"/>
+        <c:axId val="2112332984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,18 +331,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118926008"/>
+        <c:crossAx val="2117103832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118926008"/>
+        <c:axId val="2117103832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,13 +365,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118658520"/>
+        <c:crossAx val="2112332984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -395,14 +393,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -434,6 +432,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -453,10 +452,10 @@
                   <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47099999999999992</c:v>
+                  <c:v>0.471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,10 +467,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -480,13 +479,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38A7-420D-8720-8EA2D0FDDD03}"/>
             </c:ext>
@@ -500,11 +499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115484600"/>
-        <c:axId val="2115827688"/>
+        <c:axId val="2116914296"/>
+        <c:axId val="2134535768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115484600"/>
+        <c:axId val="2116914296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,18 +529,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115827688"/>
+        <c:crossAx val="2134535768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115827688"/>
+        <c:axId val="2134535768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,13 +568,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115484600"/>
+        <c:crossAx val="2116914296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -595,14 +596,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -629,47 +630,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-23'!$E$7:$E$16</c:f>
+              <c:f>'2018-07-23'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.11900000000000001</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1105</c:v>
+                  <c:v>35.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1085</c:v>
+                  <c:v>39.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4999999999999987E-2</c:v>
+                  <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3999999999999986E-2</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7500000000000008E-2</c:v>
+                  <c:v>53.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9999999999999983E-2</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5500000000000007E-2</c:v>
+                  <c:v>62.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8000000000000009E-2</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1999999999999985E-2</c:v>
+                  <c:v>70.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-23'!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.783146208533155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732121787011544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.387706941740673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.362194730979868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.196365361034635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.260145887936647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.145340939513024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.209121466415037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.311170309458257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D40D-4460-AEEA-720DCD2F1254}"/>
             </c:ext>
@@ -683,36 +723,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137483976"/>
-        <c:axId val="2137481832"/>
+        <c:axId val="2132526072"/>
+        <c:axId val="2131803320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137483976"/>
+        <c:axId val="2132526072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137481832"/>
+        <c:crossAx val="2131803320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137481832"/>
+        <c:axId val="2131803320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137483976"/>
+        <c:crossAx val="2132526072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -723,14 +764,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -744,6 +785,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,6 +860,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -855,19 +898,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9739999999999998</c:v>
+                  <c:v>1.974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1164999999999998</c:v>
+                  <c:v>1.1165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60300000000000009</c:v>
+                  <c:v>0.603</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,10 +922,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -891,13 +934,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-13D8-4021-9851-F1B9C384F2EA}"/>
             </c:ext>
@@ -911,11 +954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="424342232"/>
-        <c:axId val="424336000"/>
+        <c:axId val="2115053144"/>
+        <c:axId val="2134558536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="424342232"/>
+        <c:axId val="2115053144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,12 +1015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424336000"/>
+        <c:crossAx val="2134558536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="424336000"/>
+        <c:axId val="2134558536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424342232"/>
+        <c:crossAx val="2115053144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1048,14 +1091,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1091,7 +1134,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1105,6 +1148,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1193,6 +1237,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1230,19 +1275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1335000000000002</c:v>
+                  <c:v>2.1335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1095000000000002</c:v>
+                  <c:v>1.1095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35450000000000004</c:v>
+                  <c:v>0.3545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,10 +1299,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -1266,13 +1311,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33D4-413B-A557-DA21A185F599}"/>
             </c:ext>
@@ -1286,11 +1331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431397024"/>
-        <c:axId val="431398008"/>
+        <c:axId val="2118331016"/>
+        <c:axId val="2118664424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431397024"/>
+        <c:axId val="2118331016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,6 +1381,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1344,26 +1390,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1402,12 +1428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431398008"/>
+        <c:crossAx val="2118664424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431398008"/>
+        <c:axId val="2118664424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,6 +1479,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1461,26 +1488,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1519,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431397024"/>
+        <c:crossAx val="2118331016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1533,14 +1540,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1576,7 +1583,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1620,6 +1627,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,26 +1636,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1680,47 +1668,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>'2018-07-25 (unfold)'!$F$7:$F$16</c:f>
+              <c:f>'2018-07-25 (unfold)'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39258999999999999</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39545920000000012</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38637340000000009</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36102880000000009</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35481220000000002</c:v>
+                  <c:v>41.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35242119999999999</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35337760000000007</c:v>
+                  <c:v>50.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35337760000000007</c:v>
+                  <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34572640000000004</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34429180000000004</c:v>
+                  <c:v>69.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-25 (unfold)'!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.007308387885581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.984165159581243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.919607733258616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.903772892839858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.897682569601875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.900118698897068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.900118698897068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.880629664535521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87697547059273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F36-4DA1-8076-FE4C0CE23D68}"/>
             </c:ext>
@@ -1734,91 +1761,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432876496"/>
-        <c:axId val="432879120"/>
+        <c:axId val="2131828216"/>
+        <c:axId val="2119728088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432876496"/>
+        <c:axId val="2131828216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="432879120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="432879120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1856,7 +1808,55 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432876496"/>
+        <c:crossAx val="2119728088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2119728088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131828216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,14 +1870,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1913,7 +1913,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1952,6 +1952,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1960,26 +1961,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2012,21 +1993,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:yVal>
             <c:numRef>
               <c:f>'2018-07-25 (unfold)'!$E$19:$E$28</c:f>
@@ -2034,25 +2000,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39880660000000007</c:v>
+                  <c:v>0.3988066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39019900000000007</c:v>
+                  <c:v>0.390199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38732980000000006</c:v>
+                  <c:v>0.3873298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36820180000000002</c:v>
+                  <c:v>0.3682018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35863780000000006</c:v>
+                  <c:v>0.3586378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35385580000000005</c:v>
+                  <c:v>0.3538558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35194300000000001</c:v>
+                  <c:v>0.351943</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3404662</c:v>
@@ -2064,7 +2030,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5147-4516-B7AD-978F23DA6946}"/>
             </c:ext>
@@ -2078,30 +2044,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432879448"/>
-        <c:axId val="432880432"/>
+        <c:axId val="2112274392"/>
+        <c:axId val="2139407160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432879448"/>
+        <c:axId val="2112274392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2138,31 +2090,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432880432"/>
+        <c:crossAx val="2139407160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432880432"/>
+        <c:axId val="2139407160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2200,7 +2138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432879448"/>
+        <c:crossAx val="2112274392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,14 +2152,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4500,7 +4438,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,23 +4463,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4577,7 +4515,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4618,7 +4556,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4643,23 +4581,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>490537</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>77787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,22 +4618,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>174625</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>26987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>631825</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4669,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5073,19 +5011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5108,7 +5046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5127,7 +5065,7 @@
         <v>2.1555</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5146,7 +5084,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5165,7 +5103,7 @@
         <v>0.45449999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5184,7 +5122,7 @@
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5202,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5229,7 +5167,7 @@
         <v>9.5287600000000028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5252,7 +5190,7 @@
         <v>0.51801439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5217,7 @@
         <v>0.15670519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5315,16 +5253,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:F16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5363,7 +5301,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5382,7 +5320,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5401,7 +5339,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5420,7 +5358,7 @@
         <v>0.47099999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5439,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5461,8 +5399,15 @@
         <f>(0.7719*E7) - 0.0616</f>
         <v>3.0256100000000008E-2</v>
       </c>
+      <c r="G7">
+        <f>F7/$F$7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5484,8 +5429,15 @@
         <f t="shared" ref="F8:F16" si="2">(0.7719*E8) - 0.0616</f>
         <v>2.3694950000000006E-2</v>
       </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G15" si="3">F8/$F$7</f>
+        <v>0.78314620853315531</v>
+      </c>
+      <c r="H8">
+        <v>35.200000000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5507,8 +5459,15 @@
         <f t="shared" si="2"/>
         <v>2.2151149999999994E-2</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.7321217870115444</v>
+      </c>
+      <c r="H9">
+        <v>39.299999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5530,8 +5489,15 @@
         <f t="shared" si="2"/>
         <v>1.1730499999999991E-2</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.38770694174067338</v>
+      </c>
+      <c r="H10">
+        <v>44.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5553,8 +5519,15 @@
         <f t="shared" si="2"/>
         <v>1.0958599999999985E-2</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.36219473097986793</v>
+      </c>
+      <c r="H11">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5576,8 +5549,15 @@
         <f t="shared" si="2"/>
         <v>5.941250000000009E-3</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.19636536103463459</v>
+      </c>
+      <c r="H12">
+        <v>53.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5599,8 +5579,15 @@
         <f t="shared" si="2"/>
         <v>7.8709999999999891E-3</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.26014588793664706</v>
+      </c>
+      <c r="H13">
+        <v>57.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5622,8 +5609,15 @@
         <f t="shared" si="2"/>
         <v>4.3974500000000111E-3</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.14534093951302415</v>
+      </c>
+      <c r="H14">
+        <v>62.9</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5645,8 +5639,15 @@
         <f t="shared" si="2"/>
         <v>6.327200000000005E-3</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.20912146641503707</v>
+      </c>
+      <c r="H15">
+        <v>67.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5667,6 +5668,13 @@
       <c r="F16">
         <f t="shared" si="2"/>
         <v>9.4147999999999871E-3</v>
+      </c>
+      <c r="G16">
+        <f>F16/$F$7</f>
+        <v>0.31117030945825752</v>
+      </c>
+      <c r="H16">
+        <v>70.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -5681,24 +5689,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33093A63-4EE6-49B7-A537-6BD672D1243E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>1.9447267999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5764,7 +5772,7 @@
         <v>1.0716203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>0.5487746</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5810,7 +5818,7 @@
         <v>0.250442</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5832,7 +5840,7 @@
         <v>-6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5858,26 +5866,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B887DB37-B07C-4FAF-9842-4D3934C6CDEF}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5916,7 +5929,7 @@
         <v>2.1335000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5935,7 +5948,7 @@
         <v>1.1095000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5954,7 +5967,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5973,7 +5986,7 @@
         <v>0.35450000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5992,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6014,8 +6027,15 @@
         <f>(0.9564*E7) - 0.0617</f>
         <v>0.39258999999999999</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>F7/$F$7</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6037,8 +6057,15 @@
         <f t="shared" ref="F8:F16" si="3">(0.9564*E8) - 0.0617</f>
         <v>0.39545920000000012</v>
       </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H16" si="4">F8/$F$7</f>
+        <v>1.0073083878855806</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6060,8 +6087,15 @@
         <f t="shared" si="3"/>
         <v>0.38637340000000009</v>
       </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.98416515958124273</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6083,8 +6117,15 @@
         <f t="shared" si="3"/>
         <v>0.36102880000000009</v>
       </c>
+      <c r="G10">
+        <v>35.6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.91960773325861611</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6106,8 +6147,15 @@
         <f t="shared" si="3"/>
         <v>0.35481220000000002</v>
       </c>
+      <c r="G11">
+        <v>41.3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.9037728928398584</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6129,8 +6177,15 @@
         <f t="shared" si="3"/>
         <v>0.35242119999999999</v>
       </c>
+      <c r="G12">
+        <v>44.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.89768256960187476</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6152,8 +6207,15 @@
         <f t="shared" si="3"/>
         <v>0.35337760000000007</v>
       </c>
+      <c r="G13">
+        <v>50.3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.90011869889706841</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6175,8 +6237,15 @@
         <f t="shared" si="3"/>
         <v>0.35337760000000007</v>
       </c>
+      <c r="G14">
+        <v>54.9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.90011869889706841</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6198,8 +6267,15 @@
         <f t="shared" si="3"/>
         <v>0.34572640000000004</v>
       </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.88062966453552061</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6221,13 +6297,20 @@
         <f t="shared" si="3"/>
         <v>0.34429180000000004</v>
       </c>
+      <c r="G16">
+        <v>69.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.8769754705927304</v>
+      </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19">
         <v>0.55100000000000005</v>
       </c>
@@ -6240,122 +6323,127 @@
         <v>0.39880660000000007</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20">
         <v>0.54200000000000004</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D28" si="4">C20-$D$6</f>
+        <f t="shared" ref="D20:D28" si="5">C20-$D$6</f>
         <v>0.47250000000000003</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E28" si="5">(0.9564*D20) - 0.0617</f>
+        <f t="shared" ref="E20:E28" si="6">(0.9564*D20) - 0.0617</f>
         <v>0.39019900000000007</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21">
         <v>0.53900000000000003</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46950000000000003</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38732980000000006</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22">
         <v>0.51900000000000002</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44950000000000001</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36820180000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23">
         <v>0.50900000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4395</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35863780000000006</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24">
         <v>0.504</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4345</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35385580000000005</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25">
         <v>0.502</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4325</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35194300000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26">
         <v>0.504</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4345</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27">
         <v>0.49</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42049999999999998</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3404662</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28">
         <v>0.48799999999999999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41849999999999998</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3385534</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
+++ b/Data/2018-07-20_prelim_homogenizatio_BCA.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E87C34-EF0F-4C17-BC98-CD0E3CF8AFD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-20" sheetId="1" r:id="rId1"/>
     <sheet name="2018-07-23" sheetId="2" r:id="rId2"/>
     <sheet name="2018-07-25 (1st quant)" sheetId="3" r:id="rId3"/>
     <sheet name="2018-07-25 (unfold)" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-07-27 (new unfold)" sheetId="5" r:id="rId5"/>
+    <sheet name="2018-07-27 (Bradford_250uL)" sheetId="6" r:id="rId6"/>
+    <sheet name="2018-07-27 (Bradford_150uL)" sheetId="7" r:id="rId7"/>
+    <sheet name="2018-07-27 (Bradford_150uL_dil)" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
   <si>
     <t>Sample</t>
   </si>
@@ -92,11 +102,26 @@
   <si>
     <t>Only Reading 2 values</t>
   </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -185,7 +210,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -199,7 +224,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -232,7 +256,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -249,13 +272,13 @@
                   <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4545</c:v>
+                  <c:v>0.45449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1355</c:v>
+                  <c:v>0.13550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,10 +290,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -279,13 +302,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBFD-480F-BBCF-2B1EB587DBB7}"/>
             </c:ext>
@@ -331,7 +354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -365,7 +387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -393,14 +414,1732 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_250uL)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_250uL)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B238-4273-9498-55FFE71D9F2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312287736"/>
+        <c:axId val="312291016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312287736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312291016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312291016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312287736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_250uL)'!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_250uL)'!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91974741245374692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0668771562885428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0133754312577075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90637198119603801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0133754312577075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90637198119603801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90637198119603801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62548792478415216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53185990598019017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-264C-4B95-B7BE-FD5E636902EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309583008"/>
+        <c:axId val="309581696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309583008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309581696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309581696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309583008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL)'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1000000000000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17D1-45E3-BF23-F2738AE73DFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435020320"/>
+        <c:axId val="435012120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435020320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435012120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435012120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435020320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standard - diluted</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A26F-4038-B586-CE38F62E1257}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435019008"/>
+        <c:axId val="435015072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435019008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435015072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435015072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435019008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unfolding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> curve- diluted</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (Bradford_150uL_dil)'!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.177077726769036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.177077726769036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88616431850561972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7470318189013776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83557068228589493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78497704606617036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86086750039575721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0252968181098623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0245211334494231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5868-4D17-B3A8-C00EE37D7B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435012776"/>
+        <c:axId val="435020320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435012776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435020320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435020320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435012776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -432,7 +2171,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -452,10 +2190,10 @@
                   <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.471</c:v>
+                  <c:v>0.47099999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,10 +2205,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -479,13 +2217,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38A7-420D-8720-8EA2D0FDDD03}"/>
             </c:ext>
@@ -529,7 +2267,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -568,7 +2305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -596,14 +2332,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -637,19 +2373,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.2</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.3</c:v>
+                  <c:v>39.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53.4</c:v>
@@ -664,7 +2400,7 @@
                   <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.1</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,40 +2412,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.783146208533155</c:v>
+                  <c:v>0.78314620853315531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732121787011544</c:v>
+                  <c:v>0.7321217870115444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.387706941740673</c:v>
+                  <c:v>0.38770694174067338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.362194730979868</c:v>
+                  <c:v>0.36219473097986793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.196365361034635</c:v>
+                  <c:v>0.19636536103463459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.260145887936647</c:v>
+                  <c:v>0.26014588793664706</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.145340939513024</c:v>
+                  <c:v>0.14534093951302415</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.209121466415037</c:v>
+                  <c:v>0.20912146641503707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.311170309458257</c:v>
+                  <c:v>0.31117030945825752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D40D-4460-AEEA-720DCD2F1254}"/>
             </c:ext>
@@ -730,7 +2466,7 @@
         <c:axId val="2132526072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="25.0"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -764,14 +2500,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -785,7 +2521,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,7 +2595,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -898,19 +2632,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.974</c:v>
+                  <c:v>1.9739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1165</c:v>
+                  <c:v>1.1164999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.603</c:v>
+                  <c:v>0.60300000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,10 +2656,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -934,13 +2668,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-13D8-4021-9851-F1B9C384F2EA}"/>
             </c:ext>
@@ -1091,14 +2825,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1134,7 +2868,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1148,7 +2882,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1237,7 +2970,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1275,19 +3007,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1335</c:v>
+                  <c:v>2.1335000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1095</c:v>
+                  <c:v>1.1095000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.646</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3545</c:v>
+                  <c:v>0.35450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,10 +3031,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -1311,13 +3043,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33D4-413B-A557-DA21A185F599}"/>
             </c:ext>
@@ -1381,7 +3113,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1390,6 +3121,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1479,7 +3230,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1488,6 +3238,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1540,14 +3310,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1583,7 +3353,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1627,7 +3397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,6 +3405,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1675,13 +3464,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.6</c:v>
@@ -1699,7 +3488,7 @@
                   <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.7</c:v>
@@ -1714,40 +3503,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.007308387885581</c:v>
+                  <c:v>1.0073083878855806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.984165159581243</c:v>
+                  <c:v>0.98416515958124273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.919607733258616</c:v>
+                  <c:v>0.91960773325861611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.903772892839858</c:v>
+                  <c:v>0.9037728928398584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.897682569601875</c:v>
+                  <c:v>0.89768256960187476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.900118698897068</c:v>
+                  <c:v>0.90011869889706841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.900118698897068</c:v>
+                  <c:v>0.90011869889706841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.880629664535521</c:v>
+                  <c:v>0.88062966453552061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87697547059273</c:v>
+                  <c:v>0.8769754705927304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F36-4DA1-8076-FE4C0CE23D68}"/>
             </c:ext>
@@ -1870,14 +3659,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1913,7 +3702,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1952,7 +3741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1961,6 +3749,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2000,25 +3808,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3988066</c:v>
+                  <c:v>0.39880660000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.390199</c:v>
+                  <c:v>0.39019900000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3873298</c:v>
+                  <c:v>0.38732980000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3682018</c:v>
+                  <c:v>0.36820180000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3586378</c:v>
+                  <c:v>0.35863780000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3538558</c:v>
+                  <c:v>0.35385580000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.351943</c:v>
+                  <c:v>0.35194300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3404662</c:v>
@@ -2030,7 +3838,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5147-4516-B7AD-978F23DA6946}"/>
             </c:ext>
@@ -2152,14 +3960,737 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (new unfold)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (new unfold)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17E8-4D82-AD5F-17599C3ECAA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428776952"/>
+        <c:axId val="428773344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="428776952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428773344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="428773344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428776952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (new unfold)'!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018-07-27 (new unfold)'!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.044906495230941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1088018958517005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9291336290934834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79934935279934594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88384656135249628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73400415214031833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73400415214031833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2483085905226414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3676151926884605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8144-40A3-97AE-92DC6FEA578F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435461256"/>
+        <c:axId val="435461584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435461256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435461584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435461584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435461256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2195,6 +4726,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2354,6 +4965,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2870,7 +5681,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3386,7 +6197,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3902,7 +6713,3619 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4438,7 +10861,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +10902,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4515,7 +10938,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4556,7 +10979,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9116A61-0BEC-45A6-8255-28FEC1A12EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +11020,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D75A48D-352E-415A-8D5E-665FCDCCC388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4633,7 +11056,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA27785-889E-4C76-A2FB-15846777B53D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +11092,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E3961-22CA-470D-B51F-0ECFF4A8891B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,6 +11105,278 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B1820F-8AF8-4FC4-8F06-3162D5EE9C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85781A87-FBAF-4EB4-87D4-D14A2C712E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345F16BC-E1D6-4094-A7AC-85C07E04D11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E621CF-5AA7-4738-985B-2FFC5DC435E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9DD860-9694-449E-9F61-B8A094319083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE5EC09-B4C4-46B3-9E20-557A24A53885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A32235-67C9-48C5-BEFA-4DA0932BA9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5011,19 +11706,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +11741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5065,7 +11760,7 @@
         <v>2.1555</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5084,7 +11779,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5103,7 +11798,7 @@
         <v>0.45449999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5122,7 +11817,7 @@
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5140,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5167,7 +11862,7 @@
         <v>9.5287600000000028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5190,7 +11885,7 @@
         <v>0.51801439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5217,7 +11912,7 @@
         <v>0.15670519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5253,16 +11948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5282,7 +11977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5301,7 +11996,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5320,7 +12015,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5339,7 +12034,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5358,7 +12053,7 @@
         <v>0.47099999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5377,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5407,7 +12102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5437,7 +12132,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5467,7 +12162,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5497,7 +12192,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +12222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5557,7 +12252,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5587,7 +12282,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5617,7 +12312,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5647,7 +12342,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5689,24 +12384,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5726,7 +12421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5749,7 +12444,7 @@
         <v>1.9447267999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5772,7 +12467,7 @@
         <v>1.0716203</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5795,7 +12490,7 @@
         <v>0.5487746</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5818,7 +12513,7 @@
         <v>0.250442</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5840,7 +12535,7 @@
         <v>-6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5875,22 +12570,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +12605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5929,7 +12624,7 @@
         <v>2.1335000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5948,7 +12643,7 @@
         <v>1.1095000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -5967,7 +12662,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5986,7 +12681,7 @@
         <v>0.35450000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6005,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6035,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6065,7 +12760,7 @@
         <v>1.0073083878855806</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6095,7 +12790,7 @@
         <v>0.98416515958124273</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6125,7 +12820,7 @@
         <v>0.91960773325861611</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6155,7 +12850,7 @@
         <v>0.9037728928398584</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6185,7 +12880,7 @@
         <v>0.89768256960187476</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6215,7 +12910,7 @@
         <v>0.90011869889706841</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6245,7 +12940,7 @@
         <v>0.90011869889706841</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6275,7 +12970,7 @@
         <v>0.88062966453552061</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6305,12 +13000,12 @@
         <v>0.8769754705927304</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>0.55100000000000005</v>
       </c>
@@ -6323,7 +13018,7 @@
         <v>0.39880660000000007</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>0.54200000000000004</v>
       </c>
@@ -6336,7 +13031,7 @@
         <v>0.39019900000000007</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>0.53900000000000003</v>
       </c>
@@ -6349,7 +13044,7 @@
         <v>0.38732980000000006</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0.51900000000000002</v>
       </c>
@@ -6362,7 +13057,7 @@
         <v>0.36820180000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>0.50900000000000001</v>
       </c>
@@ -6375,7 +13070,7 @@
         <v>0.35863780000000006</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>0.504</v>
       </c>
@@ -6388,7 +13083,7 @@
         <v>0.35385580000000005</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>0.502</v>
       </c>
@@ -6401,7 +13096,7 @@
         <v>0.35194300000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>0.504</v>
       </c>
@@ -6411,7 +13106,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>0.49</v>
       </c>
@@ -6424,7 +13119,7 @@
         <v>0.3404662</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>0.48799999999999999</v>
       </c>
@@ -6446,4 +13141,1725 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73B5B00-37CE-4BAD-8F74-A8ECC573C5C5}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.4</v>
+      </c>
+      <c r="C2">
+        <v>2.516</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>1.9615000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.075</v>
+      </c>
+      <c r="C3">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">AVERAGE(B3:C3)</f>
+        <v>1.0905</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="1">D3-$D$6</f>
+        <v>0.59400000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.628</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.51</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.4995</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.503</v>
+      </c>
+      <c r="C6">
+        <v>0.49</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.4965</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.5515000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000104E-2</v>
+      </c>
+      <c r="F7">
+        <f>(-0.3886)*(E7^2)+(1.6962*E7)+(0.1652)</f>
+        <v>0.25731548500000018</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>F7/$F$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="2">AVERAGE(B9:C9)</f>
+        <v>0.5585</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F19" si="3">(-0.3886)*(E8^2)+(1.6962*E8)+(0.1652)</f>
+        <v>0.26887062159999997</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H19" si="4">F8/$F$7</f>
+        <v>1.044906495230941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.28531189760000003</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1.1088018958517005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.23908047039999997</v>
+      </c>
+      <c r="G10">
+        <v>35.6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.9291336290934834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999966E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.20568496639999995</v>
+      </c>
+      <c r="G11">
+        <v>41.3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.79934935279934594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999977E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.22742740659999999</v>
+      </c>
+      <c r="G12">
+        <v>44.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.88384656135249628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.49</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999957E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.18887063439999993</v>
+      </c>
+      <c r="G13">
+        <v>50.3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.73400415214031833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.499</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B14:C14)</f>
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999957E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.18887063439999993</v>
+      </c>
+      <c r="G14">
+        <v>54.9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.73400415214031833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.3212091304000001</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1.2483085905226414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.60949999999999993</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.11299999999999993</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.35190856659999992</v>
+      </c>
+      <c r="G16">
+        <v>69.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>1.3676151926884605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.74849999999999994</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.25199999999999995</v>
+      </c>
+      <c r="F17">
+        <f>(-0.3886)*(E17^2)+(1.6962*E17)+(0.1652)</f>
+        <v>0.56796474559999988</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>F17/$F$7</f>
+        <v>2.2072699806620637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.753</v>
+      </c>
+      <c r="C18">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.75550000000000006</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000006</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.57844812340000007</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>2.2480113211997312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.15650000000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.42113761165000008</v>
+      </c>
+      <c r="G19">
+        <v>69.7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1.6366586396850535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F91836-59BD-45C9-9F6C-CE1C372CA294}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.754</v>
+      </c>
+      <c r="C2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$6</f>
+        <v>0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.497</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">AVERAGE(B3:C3)</f>
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="1">D3-$D$6</f>
+        <v>0.19749999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.41</v>
+      </c>
+      <c r="C4">
+        <v>0.41</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.10099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.309</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000029E-2</v>
+      </c>
+      <c r="F7">
+        <f>(5.3462*E7)+0.0261</f>
+        <v>0.19985150000000015</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>F7/$F$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="2">AVERAGE(B9:C9)</f>
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.9500000000000026E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F19" si="3">(5.3462*E8)+0.0261</f>
+        <v>0.18381290000000014</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H19" si="4">F8/$F$7</f>
+        <v>0.91974741245374692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.35</v>
+      </c>
+      <c r="C9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.21321699999999988</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1.0668771562885428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.20252459999999986</v>
+      </c>
+      <c r="G10">
+        <v>35.6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1.0133754312577075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.18113980000000013</v>
+      </c>
+      <c r="G11">
+        <v>41.3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.90637198119603801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.20252459999999986</v>
+      </c>
+      <c r="G12">
+        <v>44.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1.0133754312577075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.18113980000000013</v>
+      </c>
+      <c r="G13">
+        <v>50.3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.90637198119603801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.34</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B14:C14)</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.18113980000000013</v>
+      </c>
+      <c r="G14">
+        <v>54.9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.90637198119603801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.317</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.8500000000000016E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.12500470000000008</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.62548792478415216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.10629300000000007</v>
+      </c>
+      <c r="G16">
+        <v>69.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.53185990598019017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.64</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1.8063845999999999</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>F17/$F$7</f>
+        <v>9.0386341858830104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.66199999999999992</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.35299999999999992</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1.9133085999999995</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>9.5736514361913621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.6</v>
+      </c>
+      <c r="C19">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.628</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.7315377999999999</v>
+      </c>
+      <c r="G19">
+        <v>69.7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>8.6641221106671633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D6461D-00D9-4E7B-A680-94ED89E058B0}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.45</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$6</f>
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.048</v>
+      </c>
+      <c r="C3">
+        <f>B3-$B$6</f>
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C4">
+        <f>B4-$B$6</f>
+        <v>-3.1000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C5">
+        <f>B5-$B$6</f>
+        <v>-0.10199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.379</v>
+      </c>
+      <c r="C6">
+        <f>B6-$B$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.312</v>
+      </c>
+      <c r="C7">
+        <f>B7-$B$6</f>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="D7">
+        <f>(5.3462*C7)+0.0261</f>
+        <v>-0.33209539999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7/$D$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C8">
+        <f>B8-$B$6</f>
+        <v>-8.500000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D16" si="0">(5.3462*C8)+0.0261</f>
+        <v>-0.42832700000000007</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f>D8/$D$7</f>
+        <v>1.289770951359158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C9">
+        <f>B9-$B$6</f>
+        <v>-4.7999999999999987E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.23051759999999988</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <f>D9/$D$7</f>
+        <v>0.69413066245422217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.27</v>
+      </c>
+      <c r="C10">
+        <f>B10-$B$6</f>
+        <v>-0.10899999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.5566357999999999</v>
+      </c>
+      <c r="E10">
+        <v>35.6</v>
+      </c>
+      <c r="F10">
+        <f>D10/$D$7</f>
+        <v>1.6761322198380342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C11">
+        <f>B11-$B$6</f>
+        <v>-0.11199999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.57267439999999992</v>
+      </c>
+      <c r="E11">
+        <v>41.3</v>
+      </c>
+      <c r="F11">
+        <f>D11/$D$7</f>
+        <v>1.7244273783978938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.311</v>
+      </c>
+      <c r="C12">
+        <f>B12-$B$6</f>
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.33744160000000001</v>
+      </c>
+      <c r="E12">
+        <v>44.8</v>
+      </c>
+      <c r="F12">
+        <f>D12/$D$7</f>
+        <v>1.01609838618662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C13">
+        <f>B13-$B$6</f>
+        <v>-8.1000000000000016E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.40694220000000003</v>
+      </c>
+      <c r="E13">
+        <v>50.3</v>
+      </c>
+      <c r="F13">
+        <f>D13/$D$7</f>
+        <v>1.2253774066126784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.436</v>
+      </c>
+      <c r="C14">
+        <f>B14-$B$6</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.33083339999999994</v>
+      </c>
+      <c r="E14">
+        <v>54.9</v>
+      </c>
+      <c r="F14">
+        <f>D14/$D$7</f>
+        <v>-0.9961998871408636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C15">
+        <f>B15-$B$6</f>
+        <v>-7.5000000000000011E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.374865</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <f>D15/$D$7</f>
+        <v>1.128787089492959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C16">
+        <f>B16-$B$6</f>
+        <v>-0.10099999999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.51386619999999983</v>
+      </c>
+      <c r="E16">
+        <v>69.7</v>
+      </c>
+      <c r="F16">
+        <f>D16/$D$7</f>
+        <v>1.5473451303450751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C380B-C45F-4CC4-86C6-FBA2BD645A00}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$6</f>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.752</v>
+      </c>
+      <c r="C3">
+        <f>B3-$B$6</f>
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="C4">
+        <f>B4-$B$6</f>
+        <v>0.16099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.314</v>
+      </c>
+      <c r="C5">
+        <f>B5-$B$6</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.27</v>
+      </c>
+      <c r="C6">
+        <f>B6-$B$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <f>B7-$B$6</f>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="D7">
+        <f>(1.9975*C7)+0.098</f>
+        <v>0.15792499999999995</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7/$D$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.314</v>
+      </c>
+      <c r="C8">
+        <f>B8-$B$6</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D16" si="0">(1.9975*C8)+0.098</f>
+        <v>0.18588999999999997</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f>D8/$D$7</f>
+        <v>1.177077726769036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.314</v>
+      </c>
+      <c r="C9">
+        <f>B9-$B$6</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.18588999999999997</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <f>D9/$D$7</f>
+        <v>1.177077726769036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C10">
+        <f>B10-$B$6</f>
+        <v>2.0999999999999963E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.13994749999999995</v>
+      </c>
+      <c r="E10">
+        <v>35.6</v>
+      </c>
+      <c r="F10">
+        <f>D10/$D$7</f>
+        <v>0.88616431850561972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C11">
+        <f>B11-$B$6</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.11797500000000002</v>
+      </c>
+      <c r="E11">
+        <v>41.3</v>
+      </c>
+      <c r="F11">
+        <f>D11/$D$7</f>
+        <v>0.7470318189013776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C12">
+        <f>B12-$B$6</f>
+        <v>1.699999999999996E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.13195749999999992</v>
+      </c>
+      <c r="E12">
+        <v>44.8</v>
+      </c>
+      <c r="F12">
+        <f>D12/$D$7</f>
+        <v>0.83557068228589493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C13">
+        <f>B13-$B$6</f>
+        <v>1.2999999999999956E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.12396749999999992</v>
+      </c>
+      <c r="E13">
+        <v>50.3</v>
+      </c>
+      <c r="F13">
+        <f>D13/$D$7</f>
+        <v>0.78497704606617036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C14">
+        <f>B14-$B$6</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.13595249999999992</v>
+      </c>
+      <c r="E14">
+        <v>54.9</v>
+      </c>
+      <c r="F14">
+        <f>D14/$D$7</f>
+        <v>0.86086750039575721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C15">
+        <f>B15-$B$6</f>
+        <v>3.1999999999999973E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.16191999999999995</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <f>D15/$D$7</f>
+        <v>1.0252968181098623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C16">
+        <f>B16-$B$6</f>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.31972250000000002</v>
+      </c>
+      <c r="E16">
+        <v>69.7</v>
+      </c>
+      <c r="F16">
+        <f>D16/$D$7</f>
+        <v>2.0245211334494231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>